--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl5-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl5-Cxcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Cxcr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>319.3801833333334</v>
+        <v>4.429319</v>
       </c>
       <c r="H2">
-        <v>958.1405500000001</v>
+        <v>13.287957</v>
       </c>
       <c r="I2">
-        <v>0.9980732501448392</v>
+        <v>0.01355902605229267</v>
       </c>
       <c r="J2">
-        <v>0.9980732501448393</v>
+        <v>0.01355902605229268</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N2">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O2">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P2">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q2">
-        <v>12.82439188156667</v>
+        <v>0.07025490509866666</v>
       </c>
       <c r="R2">
-        <v>115.4195269341</v>
+        <v>0.6322941458879999</v>
       </c>
       <c r="S2">
-        <v>0.0001175125037067931</v>
+        <v>4.487819709160968E-07</v>
       </c>
       <c r="T2">
-        <v>0.0001175125037067931</v>
+        <v>4.487819709160968E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>319.3801833333334</v>
+        <v>4.429319</v>
       </c>
       <c r="H3">
-        <v>958.1405500000001</v>
+        <v>13.287957</v>
       </c>
       <c r="I3">
-        <v>0.9980732501448392</v>
+        <v>0.01355902605229267</v>
       </c>
       <c r="J3">
-        <v>0.9980732501448393</v>
+        <v>0.01355902605229268</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N3">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O3">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P3">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q3">
-        <v>911.5191341979778</v>
+        <v>44.26037465196866</v>
       </c>
       <c r="R3">
-        <v>8203.672207781799</v>
+        <v>398.343371867718</v>
       </c>
       <c r="S3">
-        <v>0.008352434690506914</v>
+        <v>0.0002827312646981616</v>
       </c>
       <c r="T3">
-        <v>0.008352434690506916</v>
+        <v>0.0002827312646981617</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>319.3801833333334</v>
+        <v>4.429319</v>
       </c>
       <c r="H4">
-        <v>958.1405500000001</v>
+        <v>13.287957</v>
       </c>
       <c r="I4">
-        <v>0.9980732501448392</v>
+        <v>0.01355902605229267</v>
       </c>
       <c r="J4">
-        <v>0.9980732501448393</v>
+        <v>0.01355902605229268</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N4">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O4">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P4">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q4">
-        <v>107954.296735545</v>
+        <v>2068.833777641471</v>
       </c>
       <c r="R4">
-        <v>971588.6706199048</v>
+        <v>18619.50399877324</v>
       </c>
       <c r="S4">
-        <v>0.9892071150394547</v>
+        <v>0.0132155228012023</v>
       </c>
       <c r="T4">
-        <v>0.9892071150394549</v>
+        <v>0.01321552280120231</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>319.3801833333334</v>
+        <v>4.429319</v>
       </c>
       <c r="H5">
-        <v>958.1405500000001</v>
+        <v>13.287957</v>
       </c>
       <c r="I5">
-        <v>0.9980732501448392</v>
+        <v>0.01355902605229267</v>
       </c>
       <c r="J5">
-        <v>0.9980732501448393</v>
+        <v>0.01355902605229268</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N5">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O5">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P5">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q5">
-        <v>43.23683753917778</v>
+        <v>9.443340589672667</v>
       </c>
       <c r="R5">
-        <v>389.1315378526</v>
+        <v>84.990065307054</v>
       </c>
       <c r="S5">
-        <v>0.0003961879111707201</v>
+        <v>6.032320442129109E-05</v>
       </c>
       <c r="T5">
-        <v>0.0003961879111707201</v>
+        <v>6.032320442129109E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>319.3801833333334</v>
+      </c>
+      <c r="H6">
+        <v>958.1405500000001</v>
+      </c>
+      <c r="I6">
+        <v>0.9776862371851469</v>
+      </c>
+      <c r="J6">
+        <v>0.977686237185147</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>0.6165536666666667</v>
-      </c>
-      <c r="H6">
-        <v>1.849661</v>
-      </c>
-      <c r="I6">
-        <v>0.001926749855160762</v>
-      </c>
-      <c r="J6">
-        <v>0.001926749855160763</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M6">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N6">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O6">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P6">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q6">
-        <v>0.02475709593133333</v>
+        <v>5.065795547911113</v>
       </c>
       <c r="R6">
-        <v>0.222813863382</v>
+        <v>45.59215993120001</v>
       </c>
       <c r="S6">
-        <v>2.26854290968909E-07</v>
+        <v>3.235984316051242E-05</v>
       </c>
       <c r="T6">
-        <v>2.268542909689091E-07</v>
+        <v>3.235984316051242E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6165536666666667</v>
+        <v>319.3801833333334</v>
       </c>
       <c r="H7">
-        <v>1.849661</v>
+        <v>958.1405500000001</v>
       </c>
       <c r="I7">
-        <v>0.001926749855160762</v>
+        <v>0.9776862371851469</v>
       </c>
       <c r="J7">
-        <v>0.001926749855160763</v>
+        <v>0.977686237185147</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N7">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O7">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P7">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q7">
-        <v>1.759659784026222</v>
+        <v>3191.435652015078</v>
       </c>
       <c r="R7">
-        <v>15.836938056236</v>
+        <v>28722.9208681357</v>
       </c>
       <c r="S7">
-        <v>1.612411947503704E-05</v>
+        <v>0.02038660190276746</v>
       </c>
       <c r="T7">
-        <v>1.612411947503705E-05</v>
+        <v>0.02038660190276746</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6165536666666667</v>
+        <v>319.3801833333334</v>
       </c>
       <c r="H8">
-        <v>1.849661</v>
+        <v>958.1405500000001</v>
       </c>
       <c r="I8">
-        <v>0.001926749855160762</v>
+        <v>0.9776862371851469</v>
       </c>
       <c r="J8">
-        <v>0.001926749855160763</v>
+        <v>0.977686237185147</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N8">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O8">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P8">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q8">
-        <v>208.4024650184828</v>
+        <v>149175.1917595743</v>
       </c>
       <c r="R8">
-        <v>1875.622185166345</v>
+        <v>1342576.725836169</v>
       </c>
       <c r="S8">
-        <v>0.001909634052760832</v>
+        <v>0.952917614444532</v>
       </c>
       <c r="T8">
-        <v>0.001909634052760832</v>
+        <v>0.952917614444532</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>319.3801833333334</v>
+      </c>
+      <c r="H9">
+        <v>958.1405500000001</v>
+      </c>
+      <c r="I9">
+        <v>0.9776862371851469</v>
+      </c>
+      <c r="J9">
+        <v>0.977686237185147</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.132007333333334</v>
+      </c>
+      <c r="N9">
+        <v>6.396022</v>
+      </c>
+      <c r="O9">
+        <v>0.004448933440251864</v>
+      </c>
+      <c r="P9">
+        <v>0.004448933440251863</v>
+      </c>
+      <c r="Q9">
+        <v>680.9208929880112</v>
+      </c>
+      <c r="R9">
+        <v>6128.288036892101</v>
+      </c>
+      <c r="S9">
+        <v>0.004349660994687016</v>
+      </c>
+      <c r="T9">
+        <v>0.004349660994687015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.859904666666667</v>
+      </c>
+      <c r="H10">
+        <v>8.579713999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.008754736762560278</v>
+      </c>
+      <c r="J10">
+        <v>0.00875473676256028</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.6165536666666667</v>
-      </c>
-      <c r="H9">
-        <v>1.849661</v>
-      </c>
-      <c r="I9">
-        <v>0.001926749855160762</v>
-      </c>
-      <c r="J9">
-        <v>0.001926749855160763</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.1353773333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.406132</v>
-      </c>
-      <c r="O9">
-        <v>0.0003969527398046444</v>
-      </c>
-      <c r="P9">
-        <v>0.0003969527398046444</v>
-      </c>
-      <c r="Q9">
-        <v>0.08346739125022222</v>
-      </c>
-      <c r="R9">
-        <v>0.7512065212519999</v>
-      </c>
-      <c r="S9">
-        <v>7.648286339242662E-07</v>
-      </c>
-      <c r="T9">
-        <v>7.648286339242665E-07</v>
+      <c r="M10">
+        <v>0.01586133333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.047584</v>
+      </c>
+      <c r="O10">
+        <v>3.309839284807724E-05</v>
+      </c>
+      <c r="P10">
+        <v>3.309839284807724E-05</v>
+      </c>
+      <c r="Q10">
+        <v>0.04536190121955556</v>
+      </c>
+      <c r="R10">
+        <v>0.408257110976</v>
+      </c>
+      <c r="S10">
+        <v>2.89767716648724E-07</v>
+      </c>
+      <c r="T10">
+        <v>2.89767716648724E-07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.859904666666667</v>
+      </c>
+      <c r="H11">
+        <v>8.579713999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.008754736762560278</v>
+      </c>
+      <c r="J11">
+        <v>0.00875473676256028</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>9.992591333333333</v>
+      </c>
+      <c r="N11">
+        <v>29.977774</v>
+      </c>
+      <c r="O11">
+        <v>0.02085188593987214</v>
+      </c>
+      <c r="P11">
+        <v>0.02085188593987214</v>
+      </c>
+      <c r="Q11">
+        <v>28.57785858629289</v>
+      </c>
+      <c r="R11">
+        <v>257.200727276636</v>
+      </c>
+      <c r="S11">
+        <v>0.0001825527724065124</v>
+      </c>
+      <c r="T11">
+        <v>0.0001825527724065124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.859904666666667</v>
+      </c>
+      <c r="H12">
+        <v>8.579713999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.008754736762560278</v>
+      </c>
+      <c r="J12">
+        <v>0.00875473676256028</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>467.0771686666667</v>
+      </c>
+      <c r="N12">
+        <v>1401.231506</v>
+      </c>
+      <c r="O12">
+        <v>0.974666082227028</v>
+      </c>
+      <c r="P12">
+        <v>0.9746660822270279</v>
+      </c>
+      <c r="Q12">
+        <v>1335.796174363254</v>
+      </c>
+      <c r="R12">
+        <v>12022.16556926928</v>
+      </c>
+      <c r="S12">
+        <v>0.008532944981293561</v>
+      </c>
+      <c r="T12">
+        <v>0.008532944981293561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.859904666666667</v>
+      </c>
+      <c r="H13">
+        <v>8.579713999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.008754736762560278</v>
+      </c>
+      <c r="J13">
+        <v>0.00875473676256028</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.132007333333334</v>
+      </c>
+      <c r="N13">
+        <v>6.396022</v>
+      </c>
+      <c r="O13">
+        <v>0.004448933440251864</v>
+      </c>
+      <c r="P13">
+        <v>0.004448933440251863</v>
+      </c>
+      <c r="Q13">
+        <v>6.097337721967556</v>
+      </c>
+      <c r="R13">
+        <v>54.876039497708</v>
+      </c>
+      <c r="S13">
+        <v>3.894924114355677E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.894924114355677E-05</v>
       </c>
     </row>
   </sheetData>
